--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adam15-Itga5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adam15-Itga5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H2">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I2">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J2">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N2">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q2">
-        <v>371.2690247511661</v>
+        <v>812.1801763359283</v>
       </c>
       <c r="R2">
-        <v>371.2690247511661</v>
+        <v>7309.621587023355</v>
       </c>
       <c r="S2">
-        <v>0.02232390651944163</v>
+        <v>0.03891188315398421</v>
       </c>
       <c r="T2">
-        <v>0.02232390651944163</v>
+        <v>0.03891188315398422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H3">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I3">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J3">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N3">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q3">
-        <v>2413.273094894076</v>
+        <v>2873.171464348547</v>
       </c>
       <c r="R3">
-        <v>2413.273094894076</v>
+        <v>25858.54317913692</v>
       </c>
       <c r="S3">
-        <v>0.1451068615605798</v>
+        <v>0.1376548154702193</v>
       </c>
       <c r="T3">
-        <v>0.1451068615605798</v>
+        <v>0.1376548154702193</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H4">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I4">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J4">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N4">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q4">
-        <v>687.9090891205399</v>
+        <v>1123.589901556319</v>
       </c>
       <c r="R4">
-        <v>687.9090891205399</v>
+        <v>10112.30911400687</v>
       </c>
       <c r="S4">
-        <v>0.04136304721271508</v>
+        <v>0.05383164996663565</v>
       </c>
       <c r="T4">
-        <v>0.04136304721271508</v>
+        <v>0.05383164996663566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H5">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I5">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J5">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N5">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q5">
-        <v>697.9658984902646</v>
+        <v>831.4599588326546</v>
       </c>
       <c r="R5">
-        <v>697.9658984902646</v>
+        <v>7483.139629493892</v>
       </c>
       <c r="S5">
-        <v>0.04196774961794281</v>
+        <v>0.03983558538854422</v>
       </c>
       <c r="T5">
-        <v>0.04196774961794281</v>
+        <v>0.03983558538854423</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H6">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I6">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J6">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N6">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q6">
-        <v>676.539218398666</v>
+        <v>843.2655308513579</v>
       </c>
       <c r="R6">
-        <v>676.539218398666</v>
+        <v>7589.389777662222</v>
       </c>
       <c r="S6">
-        <v>0.04067939219650853</v>
+        <v>0.04040119515389231</v>
       </c>
       <c r="T6">
-        <v>0.04067939219650853</v>
+        <v>0.04040119515389231</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H7">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I7">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J7">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N7">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q7">
-        <v>233.4520691915833</v>
+        <v>298.6664462635513</v>
       </c>
       <c r="R7">
-        <v>233.4520691915833</v>
+        <v>2687.998016371962</v>
       </c>
       <c r="S7">
-        <v>0.01403715856149337</v>
+        <v>0.01430923112584828</v>
       </c>
       <c r="T7">
-        <v>0.01403715856149337</v>
+        <v>0.01430923112584828</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H8">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I8">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J8">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N8">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q8">
-        <v>142.227614050981</v>
+        <v>265.3797815626572</v>
       </c>
       <c r="R8">
-        <v>142.227614050981</v>
+        <v>2388.418034063915</v>
       </c>
       <c r="S8">
-        <v>0.008551954913786136</v>
+        <v>0.01271445345807705</v>
       </c>
       <c r="T8">
-        <v>0.008551954913786136</v>
+        <v>0.01271445345807705</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H9">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I9">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J9">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N9">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q9">
-        <v>924.488851635967</v>
+        <v>938.8084538590178</v>
       </c>
       <c r="R9">
-        <v>924.488851635967</v>
+        <v>8449.27608473116</v>
       </c>
       <c r="S9">
-        <v>0.05558826976212063</v>
+        <v>0.04497869552214368</v>
       </c>
       <c r="T9">
-        <v>0.05558826976212063</v>
+        <v>0.04497869552214367</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H10">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I10">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J10">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N10">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q10">
-        <v>263.5276899148068</v>
+        <v>367.1328743656669</v>
       </c>
       <c r="R10">
-        <v>263.5276899148068</v>
+        <v>3304.195869291002</v>
       </c>
       <c r="S10">
-        <v>0.01584556513672386</v>
+        <v>0.01758948559142668</v>
       </c>
       <c r="T10">
-        <v>0.01584556513672386</v>
+        <v>0.01758948559142668</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H11">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I11">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J11">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N11">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q11">
-        <v>267.3803032659479</v>
+        <v>271.6794483319684</v>
       </c>
       <c r="R11">
-        <v>267.3803032659479</v>
+        <v>2445.115034987716</v>
       </c>
       <c r="S11">
-        <v>0.0160772175897236</v>
+        <v>0.01301627305966147</v>
       </c>
       <c r="T11">
-        <v>0.0160772175897236</v>
+        <v>0.01301627305966147</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H12">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I12">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J12">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N12">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q12">
-        <v>259.1720623858901</v>
+        <v>275.536917665534</v>
       </c>
       <c r="R12">
-        <v>259.1720623858901</v>
+        <v>2479.832258989806</v>
       </c>
       <c r="S12">
-        <v>0.01558366711855708</v>
+        <v>0.01320108598707734</v>
       </c>
       <c r="T12">
-        <v>0.01558366711855708</v>
+        <v>0.01320108598707734</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H13">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I13">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J13">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N13">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q13">
-        <v>89.43199831614591</v>
+        <v>97.58922783253622</v>
       </c>
       <c r="R13">
-        <v>89.43199831614591</v>
+        <v>878.3030504928259</v>
       </c>
       <c r="S13">
-        <v>0.005377425632516981</v>
+        <v>0.004675539666135051</v>
       </c>
       <c r="T13">
-        <v>0.005377425632516981</v>
+        <v>0.004675539666135051</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H14">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I14">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J14">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N14">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q14">
-        <v>286.4768224328861</v>
+        <v>626.4787020815368</v>
       </c>
       <c r="R14">
-        <v>286.4768224328861</v>
+        <v>5638.308318733831</v>
       </c>
       <c r="S14">
-        <v>0.01722546557247728</v>
+        <v>0.03001484986229657</v>
       </c>
       <c r="T14">
-        <v>0.01722546557247728</v>
+        <v>0.03001484986229657</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H15">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I15">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J15">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N15">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q15">
-        <v>1862.118199468403</v>
+        <v>2216.233272231814</v>
       </c>
       <c r="R15">
-        <v>1862.118199468403</v>
+        <v>19946.09945008632</v>
       </c>
       <c r="S15">
-        <v>0.1119666598659683</v>
+        <v>0.1061806390302579</v>
       </c>
       <c r="T15">
-        <v>0.1119666598659683</v>
+        <v>0.1061806390302579</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H16">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I16">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J16">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N16">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q16">
-        <v>530.8011087271141</v>
+        <v>866.6859444594227</v>
       </c>
       <c r="R16">
-        <v>530.8011087271141</v>
+        <v>7800.173500134804</v>
       </c>
       <c r="S16">
-        <v>0.03191635590817719</v>
+        <v>0.0415232767120096</v>
       </c>
       <c r="T16">
-        <v>0.03191635590817719</v>
+        <v>0.0415232767120096</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H17">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I17">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J17">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N17">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q17">
-        <v>538.5610956906992</v>
+        <v>641.3502459419814</v>
       </c>
       <c r="R17">
-        <v>538.5610956906992</v>
+        <v>5772.152213477832</v>
       </c>
       <c r="S17">
-        <v>0.03238295347495041</v>
+        <v>0.03072735158774822</v>
       </c>
       <c r="T17">
-        <v>0.03238295347495041</v>
+        <v>0.03072735158774822</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H18">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I18">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J18">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N18">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q18">
-        <v>522.027943666931</v>
+        <v>650.4565251286681</v>
       </c>
       <c r="R18">
-        <v>522.027943666931</v>
+        <v>5854.108726158012</v>
       </c>
       <c r="S18">
-        <v>0.03138883730676836</v>
+        <v>0.0311636371337443</v>
       </c>
       <c r="T18">
-        <v>0.03138883730676836</v>
+        <v>0.03116363713374429</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H19">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I19">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J19">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N19">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q19">
-        <v>180.1351648369017</v>
+        <v>230.3776588768947</v>
       </c>
       <c r="R19">
-        <v>180.1351648369017</v>
+        <v>2073.398929892052</v>
       </c>
       <c r="S19">
-        <v>0.01083128489746321</v>
+        <v>0.01103748749932349</v>
       </c>
       <c r="T19">
-        <v>0.01083128489746321</v>
+        <v>0.01103748749932349</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H20">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I20">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J20">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N20">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q20">
-        <v>196.5733218267351</v>
+        <v>379.3882609080228</v>
       </c>
       <c r="R20">
-        <v>196.5733218267351</v>
+        <v>3414.494348172205</v>
       </c>
       <c r="S20">
-        <v>0.01181968914217201</v>
+        <v>0.01817664615387043</v>
       </c>
       <c r="T20">
-        <v>0.01181968914217201</v>
+        <v>0.01817664615387043</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H21">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I21">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J21">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N21">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q21">
-        <v>1277.739528786057</v>
+        <v>1342.125253619702</v>
       </c>
       <c r="R21">
-        <v>1277.739528786057</v>
+        <v>12079.12728257732</v>
       </c>
       <c r="S21">
-        <v>0.07682875730323298</v>
+        <v>0.06430176772162498</v>
       </c>
       <c r="T21">
-        <v>0.07682875730323298</v>
+        <v>0.06430176772162498</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H22">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I22">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J22">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N22">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q22">
-        <v>364.2226141915798</v>
+        <v>524.8549904879171</v>
       </c>
       <c r="R22">
-        <v>364.2226141915798</v>
+        <v>4723.694914391254</v>
       </c>
       <c r="S22">
-        <v>0.02190021534096198</v>
+        <v>0.02514601643540246</v>
       </c>
       <c r="T22">
-        <v>0.02190021534096198</v>
+        <v>0.02514601643540246</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H23">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I23">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J23">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N23">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q23">
-        <v>369.547325635283</v>
+        <v>388.3942959791036</v>
       </c>
       <c r="R23">
-        <v>369.547325635283</v>
+        <v>3495.548663811932</v>
       </c>
       <c r="S23">
-        <v>0.02222038306998785</v>
+        <v>0.01860812896344547</v>
       </c>
       <c r="T23">
-        <v>0.02222038306998785</v>
+        <v>0.01860812896344547</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H24">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I24">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J24">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N24">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q24">
-        <v>358.2026849555299</v>
+        <v>393.908953400818</v>
       </c>
       <c r="R24">
-        <v>358.2026849555299</v>
+        <v>3545.180580607362</v>
       </c>
       <c r="S24">
-        <v>0.02153824510224006</v>
+        <v>0.01887233844735099</v>
       </c>
       <c r="T24">
-        <v>0.02153824510224006</v>
+        <v>0.01887233844735099</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H25">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I25">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J25">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N25">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q25">
-        <v>123.6043021878038</v>
+        <v>139.5140474256558</v>
       </c>
       <c r="R25">
-        <v>123.6043021878038</v>
+        <v>1255.626426830902</v>
       </c>
       <c r="S25">
-        <v>0.00743216024900197</v>
+        <v>0.006684174854227328</v>
       </c>
       <c r="T25">
-        <v>0.00743216024900197</v>
+        <v>0.006684174854227328</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H26">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I26">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J26">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N26">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O26">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P26">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q26">
-        <v>185.872108079703</v>
+        <v>351.3580296503899</v>
       </c>
       <c r="R26">
-        <v>185.872108079703</v>
+        <v>3162.22226685351</v>
       </c>
       <c r="S26">
-        <v>0.01117623956947086</v>
+        <v>0.01683370635398908</v>
       </c>
       <c r="T26">
-        <v>0.01117623956947086</v>
+        <v>0.01683370635398909</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H27">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I27">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J27">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N27">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P27">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q27">
-        <v>1208.1809351605</v>
+        <v>1242.96540838456</v>
       </c>
       <c r="R27">
-        <v>1208.1809351605</v>
+        <v>11186.68867546104</v>
       </c>
       <c r="S27">
-        <v>0.0726462927338779</v>
+        <v>0.05955097913581604</v>
       </c>
       <c r="T27">
-        <v>0.0726462927338779</v>
+        <v>0.05955097913581604</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H28">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I28">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J28">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N28">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O28">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P28">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q28">
-        <v>344.3947758575338</v>
+        <v>486.0772836477319</v>
       </c>
       <c r="R28">
-        <v>344.3947758575338</v>
+        <v>4374.695552829588</v>
       </c>
       <c r="S28">
-        <v>0.02070799412146081</v>
+        <v>0.02328816070152817</v>
       </c>
       <c r="T28">
-        <v>0.02070799412146081</v>
+        <v>0.02328816070152817</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H29">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I29">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J29">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N29">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O29">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P29">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q29">
-        <v>349.4296164542124</v>
+        <v>359.698674482056</v>
       </c>
       <c r="R29">
-        <v>349.4296164542124</v>
+        <v>3237.288070338504</v>
       </c>
       <c r="S29">
-        <v>0.02101073230678579</v>
+        <v>0.01723331004609451</v>
       </c>
       <c r="T29">
-        <v>0.02101073230678579</v>
+        <v>0.01723331004609451</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H30">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I30">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J30">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N30">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O30">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P30">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q30">
-        <v>338.7025642837705</v>
+        <v>364.805894091996</v>
       </c>
       <c r="R30">
-        <v>338.7025642837705</v>
+        <v>3283.253046827964</v>
       </c>
       <c r="S30">
-        <v>0.0203657291044782</v>
+        <v>0.01747799901843594</v>
       </c>
       <c r="T30">
-        <v>0.0203657291044782</v>
+        <v>0.01747799901843594</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H31">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I31">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J31">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N31">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O31">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P31">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q31">
-        <v>116.8754335627402</v>
+        <v>129.206372107316</v>
       </c>
       <c r="R31">
-        <v>116.8754335627402</v>
+        <v>1162.857348965844</v>
       </c>
       <c r="S31">
-        <v>0.007027562439453489</v>
+        <v>0.006190329930080166</v>
       </c>
       <c r="T31">
-        <v>0.007027562439453489</v>
+        <v>0.006190329930080166</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H32">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I32">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J32">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N32">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O32">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P32">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q32">
-        <v>32.95139467579885</v>
+        <v>64.65887943981112</v>
       </c>
       <c r="R32">
-        <v>32.95139467579885</v>
+        <v>581.9299149583001</v>
       </c>
       <c r="S32">
-        <v>0.001981322990574773</v>
+        <v>0.003097833257861778</v>
       </c>
       <c r="T32">
-        <v>0.001981322990574773</v>
+        <v>0.003097833257861778</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H33">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I33">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J33">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N33">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O33">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P33">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q33">
-        <v>214.1862339947106</v>
+        <v>228.7374805936889</v>
       </c>
       <c r="R33">
-        <v>214.1862339947106</v>
+        <v>2058.6373253432</v>
       </c>
       <c r="S33">
-        <v>0.0128787298338552</v>
+        <v>0.01095890588951896</v>
       </c>
       <c r="T33">
-        <v>0.0128787298338552</v>
+        <v>0.01095890588951896</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H34">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I34">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J34">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N34">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O34">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P34">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q34">
-        <v>61.05428243541881</v>
+        <v>89.45067375600443</v>
       </c>
       <c r="R34">
-        <v>61.05428243541881</v>
+        <v>805.0560638040399</v>
       </c>
       <c r="S34">
-        <v>0.003671111789122115</v>
+        <v>0.004285618224445737</v>
       </c>
       <c r="T34">
-        <v>0.003671111789122115</v>
+        <v>0.004285618224445737</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H35">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I35">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J35">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N35">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O35">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P35">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q35">
-        <v>61.94685863388616</v>
+        <v>66.19377178070222</v>
       </c>
       <c r="R35">
-        <v>61.94685863388616</v>
+        <v>595.74394602632</v>
       </c>
       <c r="S35">
-        <v>0.003724781194021752</v>
+        <v>0.003171370575273471</v>
       </c>
       <c r="T35">
-        <v>0.003724781194021752</v>
+        <v>0.003171370575273471</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H36">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I36">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J36">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N36">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O36">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P36">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q36">
-        <v>60.04516755485376</v>
+        <v>67.13363103867999</v>
       </c>
       <c r="R36">
-        <v>60.04516755485376</v>
+        <v>604.20267934812</v>
       </c>
       <c r="S36">
-        <v>0.003610435070195159</v>
+        <v>0.003216399615249073</v>
       </c>
       <c r="T36">
-        <v>0.003610435070195159</v>
+        <v>0.003216399615249072</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H37">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I37">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J37">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N37">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O37">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P37">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q37">
-        <v>20.7196689111609</v>
+        <v>23.77728280539111</v>
       </c>
       <c r="R37">
-        <v>20.7196689111609</v>
+        <v>213.99554524852</v>
       </c>
       <c r="S37">
-        <v>0.00124584579119291</v>
+        <v>0.001139179306760048</v>
       </c>
       <c r="T37">
-        <v>0.00124584579119291</v>
+        <v>0.001139179306760048</v>
       </c>
     </row>
   </sheetData>
